--- a/prototypes/post-run-analysis/maps/GA_final_table.xlsx
+++ b/prototypes/post-run-analysis/maps/GA_final_table.xlsx
@@ -3,24 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9927E2-188D-480A-A9EC-3A0C19029D8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41C1E7F-090C-44B4-9CD7-D2EBEEB8141E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="34">
   <si>
     <t>Lactobacillus Murinus ASF361</t>
   </si>
@@ -70,7 +75,58 @@
     <t>sams2 without labels</t>
   </si>
   <si>
-    <t>20080 + 192</t>
+    <t>number of reads</t>
+  </si>
+  <si>
+    <t>501 colq n</t>
+  </si>
+  <si>
+    <t>SAMSA2 without label</t>
+  </si>
+  <si>
+    <t>502 cecq n</t>
+  </si>
+  <si>
+    <t>Humann2</t>
+  </si>
+  <si>
+    <t>502 cecq y</t>
+  </si>
+  <si>
+    <t>502 colq n</t>
+  </si>
+  <si>
+    <t>503 cecm n</t>
+  </si>
+  <si>
+    <t>503 cecq n</t>
+  </si>
+  <si>
+    <t>504 cecm n</t>
+  </si>
+  <si>
+    <t>504 cecq n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">humann2 </t>
+  </si>
+  <si>
+    <t>504 cecq y</t>
+  </si>
+  <si>
+    <t>504 colq n</t>
+  </si>
+  <si>
+    <t>summed</t>
+  </si>
+  <si>
+    <t>BWA</t>
+  </si>
+  <si>
+    <t>HUMAnN2</t>
+  </si>
+  <si>
+    <t>average</t>
   </si>
 </sst>
 </file>
@@ -125,10 +181,1460 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Relative</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Gene</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> Annotations by various Metatranscriptomic tools</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clostridium ASF356</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$63:$E$63</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>BWA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MetaPro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SAMSA2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HUMAnN2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$64:$E$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>152303.66666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26542.416666666668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11270.916666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12342.916666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF44-44F5-8715-80B39FCC6EDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clostridium ASF502</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$63:$E$63</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>BWA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MetaPro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SAMSA2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HUMAnN2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$65:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>19698.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DF44-44F5-8715-80B39FCC6EDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Eubacterium Plexicaudatum ASF492</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$63:$E$63</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>BWA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MetaPro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SAMSA2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HUMAnN2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$66:$E$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6927.166666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DF44-44F5-8715-80B39FCC6EDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Firmicutes ASF500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$63:$E$63</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>BWA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MetaPro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SAMSA2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HUMAnN2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$67:$E$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>116.91666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5833333333333339</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DF44-44F5-8715-80B39FCC6EDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lactobacillus ASF360</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$63:$E$63</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>BWA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MetaPro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SAMSA2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HUMAnN2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$68:$E$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>934.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DF44-44F5-8715-80B39FCC6EDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lactobacillus Murinus ASF361</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$63:$E$63</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>BWA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MetaPro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SAMSA2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HUMAnN2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$69:$E$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9263.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1420.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>646.91666666666663</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>410.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DF44-44F5-8715-80B39FCC6EDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mucispirillum Schaedleri ASF457</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$63:$E$63</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>BWA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MetaPro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SAMSA2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HUMAnN2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$70:$E$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>33779.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5282.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2752.0833333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3412.4166666666665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-DF44-44F5-8715-80B39FCC6EDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parabacteroides ASF519</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$63:$E$63</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>BWA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MetaPro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SAMSA2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HUMAnN2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$71:$E$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>472581.41666666669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76169.416666666672</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>587.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-DF44-44F5-8715-80B39FCC6EDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1090444576"/>
+        <c:axId val="1481224992"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1090444576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1481224992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1481224992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1090444576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>185736</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38563577-9100-4D18-8544-4118F9452F48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Custom 16">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -142,19 +1648,19 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="FF0000"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="7030A0"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="6F3B55"/>
       </a:accent3>
       <a:accent4>
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="FFFF00"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -388,92 +1894,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
       <c r="G1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
       <c r="I2" t="s">
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
+        <v>117438</v>
+      </c>
+      <c r="C3">
         <v>4285</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>878</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
       <c r="E3">
-        <v>117438</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
       </c>
+      <c r="H3">
+        <v>137228</v>
+      </c>
       <c r="I3">
         <v>41209</v>
       </c>
       <c r="J3">
-        <v>192</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3">
+        <f>20080 + 192</f>
+        <v>20272</v>
+      </c>
+      <c r="K3">
         <v>34923</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3">
+        <v>96428</v>
+      </c>
+      <c r="O3">
+        <v>2202</v>
+      </c>
+      <c r="P3">
+        <f>892 + 3</f>
+        <v>895</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>7557</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -482,27 +2027,42 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7557</v>
+        <v>0</v>
       </c>
       <c r="G4" t="s">
         <v>7</v>
       </c>
+      <c r="H4">
+        <v>12365</v>
+      </c>
       <c r="I4">
         <v>9</v>
       </c>
       <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <v>35545</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3456</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -511,27 +2071,42 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3456</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
       </c>
+      <c r="H5">
+        <v>1371</v>
+      </c>
       <c r="I5">
         <v>37</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <v>13310</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -540,27 +2115,42 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
       </c>
+      <c r="H6">
+        <v>16</v>
+      </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6">
+        <v>340</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -569,115 +2159,1647 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
       </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>3340</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8">
+        <v>2884</v>
+      </c>
+      <c r="C8">
         <v>96</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>16</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
       <c r="E8">
-        <v>2884</v>
+        <v>0</v>
       </c>
       <c r="G8" t="s">
         <v>0</v>
+      </c>
+      <c r="H8">
+        <v>5728</v>
       </c>
       <c r="I8">
         <v>2810</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1485</v>
       </c>
       <c r="K8">
-        <v>1485</v>
-      </c>
-      <c r="L8">
         <v>1940</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>17398</v>
+      </c>
+      <c r="O8">
+        <v>356</v>
+      </c>
+      <c r="P8">
+        <v>174</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
+        <v>19670</v>
+      </c>
+      <c r="C9">
         <v>772</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>179</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
       <c r="E9">
-        <v>19670</v>
+        <v>0</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
       </c>
+      <c r="H9">
+        <v>30621</v>
+      </c>
       <c r="I9">
         <v>16291</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9325</v>
       </c>
       <c r="K9">
-        <v>9325</v>
-      </c>
-      <c r="L9">
         <v>13331</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9">
+        <v>11610</v>
+      </c>
+      <c r="O9">
+        <v>322</v>
+      </c>
+      <c r="P9">
+        <v>129</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10">
+        <v>182634</v>
+      </c>
+      <c r="C10">
         <v>9454</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>47</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
       <c r="E10">
-        <v>182634</v>
+        <v>0</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
       </c>
+      <c r="H10">
+        <v>577008</v>
+      </c>
       <c r="I10">
         <v>239309</v>
       </c>
       <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
         <v>2683</v>
+      </c>
+      <c r="M10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10">
+        <v>774544</v>
+      </c>
+      <c r="O10">
+        <v>5373</v>
+      </c>
+      <c r="P10">
+        <v>32</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>259356</v>
+      </c>
+      <c r="C15">
+        <v>13398</v>
+      </c>
+      <c r="D15">
+        <v>3657</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>101625</v>
+      </c>
+      <c r="I15">
+        <v>14325</v>
+      </c>
+      <c r="J15">
+        <f>6759 + 8</f>
+        <v>6767</v>
+      </c>
+      <c r="M15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15">
+        <v>68692</v>
+      </c>
+      <c r="O15">
+        <v>8418</v>
+      </c>
+      <c r="P15">
+        <f>3830 + 3</f>
+        <v>3833</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>26460</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>12815</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="M16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16">
+        <v>17950</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>12604</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17">
+        <v>1101</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17">
+        <v>6955</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>220</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="M18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18">
+        <v>168</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>1674</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>25</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19">
+        <v>1664</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>8701</v>
+      </c>
+      <c r="C20">
+        <v>392</v>
+      </c>
+      <c r="D20">
+        <v>125</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>3123</v>
+      </c>
+      <c r="I20">
+        <v>1233</v>
+      </c>
+      <c r="J20">
+        <v>595</v>
+      </c>
+      <c r="M20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>14988</v>
+      </c>
+      <c r="O20">
+        <v>1080</v>
+      </c>
+      <c r="P20">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>39338</v>
+      </c>
+      <c r="C21">
+        <v>907</v>
+      </c>
+      <c r="D21">
+        <v>348</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21">
+        <v>13986</v>
+      </c>
+      <c r="I21">
+        <v>2930</v>
+      </c>
+      <c r="J21">
+        <v>1678</v>
+      </c>
+      <c r="K21">
+        <v>2390</v>
+      </c>
+      <c r="M21" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21">
+        <v>10284</v>
+      </c>
+      <c r="O21">
+        <v>779</v>
+      </c>
+      <c r="P21">
+        <v>403</v>
+      </c>
+      <c r="Q21">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>426206</v>
+      </c>
+      <c r="C22">
+        <v>16708</v>
+      </c>
+      <c r="D22">
+        <v>200</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22">
+        <v>230758</v>
+      </c>
+      <c r="I22">
+        <v>42632</v>
+      </c>
+      <c r="J22">
+        <v>408</v>
+      </c>
+      <c r="M22" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22">
+        <v>454306</v>
+      </c>
+      <c r="O22">
+        <v>16663</v>
+      </c>
+      <c r="P22">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>159204</v>
+      </c>
+      <c r="C26">
+        <v>61813</v>
+      </c>
+      <c r="D26">
+        <f>111 + 22584</f>
+        <v>22695</v>
+      </c>
+      <c r="E26">
+        <v>37163</v>
+      </c>
+      <c r="G26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>128931</v>
+      </c>
+      <c r="I26">
+        <v>5538</v>
+      </c>
+      <c r="J26">
+        <f>22 + 2343</f>
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>16116</v>
+      </c>
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27">
+        <v>23282</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>7873</v>
+      </c>
+      <c r="G28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28">
+        <v>12049</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>105</v>
+      </c>
+      <c r="D29">
+        <v>45</v>
+      </c>
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29">
+        <v>145</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>989</v>
+      </c>
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>4799</v>
+      </c>
+      <c r="C31">
+        <v>2175</v>
+      </c>
+      <c r="D31">
+        <v>763</v>
+      </c>
+      <c r="E31">
+        <v>990</v>
+      </c>
+      <c r="G31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>11809</v>
+      </c>
+      <c r="I31">
+        <v>551</v>
+      </c>
+      <c r="J31">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>76621</v>
+      </c>
+      <c r="C32">
+        <v>15526</v>
+      </c>
+      <c r="D32">
+        <v>6712</v>
+      </c>
+      <c r="E32">
+        <v>11613</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32">
+        <v>36719</v>
+      </c>
+      <c r="I32">
+        <v>1413</v>
+      </c>
+      <c r="J32">
+        <v>622</v>
+      </c>
+      <c r="K32">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>556994</v>
+      </c>
+      <c r="C33">
+        <v>254769</v>
+      </c>
+      <c r="D33">
+        <v>1079</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33">
+        <v>381490</v>
+      </c>
+      <c r="I33">
+        <v>14816</v>
+      </c>
+      <c r="J33">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" t="s">
+        <v>28</v>
+      </c>
+      <c r="S37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" t="s">
+        <v>2</v>
+      </c>
+      <c r="J38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" t="s">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>16</v>
+      </c>
+      <c r="O38" t="s">
+        <v>2</v>
+      </c>
+      <c r="P38" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>4</v>
+      </c>
+      <c r="S38" t="s">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s">
+        <v>16</v>
+      </c>
+      <c r="U38" t="s">
+        <v>2</v>
+      </c>
+      <c r="V38" t="s">
+        <v>18</v>
+      </c>
+      <c r="W38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>161967</v>
+      </c>
+      <c r="C39">
+        <v>68551</v>
+      </c>
+      <c r="D39">
+        <f xml:space="preserve"> 128 + 27057</f>
+        <v>27185</v>
+      </c>
+      <c r="E39">
+        <v>44060</v>
+      </c>
+      <c r="G39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39">
+        <v>242369</v>
+      </c>
+      <c r="I39">
+        <v>10660</v>
+      </c>
+      <c r="J39">
+        <f>35 + 5789</f>
+        <v>5824</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
+        <v>6</v>
+      </c>
+      <c r="N39">
+        <v>236475</v>
+      </c>
+      <c r="O39">
+        <v>37831</v>
+      </c>
+      <c r="P39">
+        <f>5 + 18519</f>
+        <v>18524</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="S39" t="s">
+        <v>6</v>
+      </c>
+      <c r="T39">
+        <v>117931</v>
+      </c>
+      <c r="U39">
+        <v>50279</v>
+      </c>
+      <c r="V39">
+        <f>83 + 22273</f>
+        <v>22356</v>
+      </c>
+      <c r="W39">
+        <v>31969</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>7278</v>
+      </c>
+      <c r="C40">
+        <v>25</v>
+      </c>
+      <c r="D40">
+        <v>27</v>
+      </c>
+      <c r="G40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40">
+        <v>23931</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
+        <v>7</v>
+      </c>
+      <c r="N40">
+        <v>39332</v>
+      </c>
+      <c r="O40">
+        <v>4</v>
+      </c>
+      <c r="P40">
+        <v>47</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="S40" t="s">
+        <v>7</v>
+      </c>
+      <c r="T40">
+        <v>13754</v>
+      </c>
+      <c r="U40">
+        <v>21</v>
+      </c>
+      <c r="V40">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>3521</v>
+      </c>
+      <c r="C41">
+        <v>56</v>
+      </c>
+      <c r="D41">
+        <v>51</v>
+      </c>
+      <c r="G41" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41">
+        <v>11793</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41">
+        <v>3462</v>
+      </c>
+      <c r="P41">
+        <v>2</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="S41" t="s">
+        <v>8</v>
+      </c>
+      <c r="T41">
+        <v>5631</v>
+      </c>
+      <c r="U41">
+        <v>25</v>
+      </c>
+      <c r="V41">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>63</v>
+      </c>
+      <c r="D42">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42">
+        <v>129</v>
+      </c>
+      <c r="J42">
+        <v>24</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="M42" t="s">
+        <v>9</v>
+      </c>
+      <c r="N42">
+        <v>25</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="S42" t="s">
+        <v>9</v>
+      </c>
+      <c r="T42">
+        <v>101</v>
+      </c>
+      <c r="V42">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>376</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>936</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
+        <v>10</v>
+      </c>
+      <c r="N43">
+        <v>394</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="S43" t="s">
+        <v>10</v>
+      </c>
+      <c r="T43">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>3086</v>
+      </c>
+      <c r="C44">
+        <v>911</v>
+      </c>
+      <c r="D44">
+        <v>320</v>
+      </c>
+      <c r="E44">
+        <v>541</v>
+      </c>
+      <c r="G44" t="s">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>11740</v>
+      </c>
+      <c r="I44">
+        <v>420</v>
+      </c>
+      <c r="J44">
+        <v>121</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="M44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>14006</v>
+      </c>
+      <c r="O44">
+        <v>4948</v>
+      </c>
+      <c r="P44">
+        <v>2535</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="S44" t="s">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>12903</v>
+      </c>
+      <c r="U44">
+        <v>2076</v>
+      </c>
+      <c r="V44">
+        <v>902</v>
+      </c>
+      <c r="W44">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <v>48725</v>
+      </c>
+      <c r="C45">
+        <v>6989</v>
+      </c>
+      <c r="D45">
+        <v>3039</v>
+      </c>
+      <c r="E45">
+        <v>5517</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45">
+        <v>36278</v>
+      </c>
+      <c r="I45">
+        <v>1150</v>
+      </c>
+      <c r="J45">
+        <v>544</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="M45" t="s">
+        <v>11</v>
+      </c>
+      <c r="N45">
+        <v>46335</v>
+      </c>
+      <c r="O45">
+        <v>7877</v>
+      </c>
+      <c r="P45">
+        <f>5554</f>
+        <v>5554</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="S45" t="s">
+        <v>11</v>
+      </c>
+      <c r="T45">
+        <v>35171</v>
+      </c>
+      <c r="U45">
+        <v>8436</v>
+      </c>
+      <c r="V45">
+        <v>4492</v>
+      </c>
+      <c r="W45">
+        <v>6462</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46">
+        <v>271155</v>
+      </c>
+      <c r="C46">
+        <v>118163</v>
+      </c>
+      <c r="D46">
+        <v>524</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46">
+        <v>579169</v>
+      </c>
+      <c r="I46">
+        <v>13848</v>
+      </c>
+      <c r="J46">
+        <v>174</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>12</v>
+      </c>
+      <c r="N46">
+        <v>711682</v>
+      </c>
+      <c r="O46">
+        <v>82957</v>
+      </c>
+      <c r="P46">
+        <v>828</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="S46" t="s">
+        <v>12</v>
+      </c>
+      <c r="T46">
+        <v>525031</v>
+      </c>
+      <c r="U46">
+        <v>99341</v>
+      </c>
+      <c r="V46">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <f>B3+H3+N3+B15+H15+N15+B26+H26+B39+H39+N39+T39</f>
+        <v>1827644</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:E59" si="0">C3+I3+O3+C15+I15+O15+C26+I26+C39+I39+O39+U39</f>
+        <v>318509</v>
+      </c>
+      <c r="D52">
+        <f>D3+J3+P3+D15+J15+P15+D26+J26+D39+J39+P39+V39</f>
+        <v>135251</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>148115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ref="B53:B59" si="1">B4+H4+N4+B16+H16+N16+B27+H27+B40+H40+N40+T40</f>
+        <v>236385</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="1"/>
+        <v>83126</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="1"/>
+        <v>1403</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="1"/>
+        <v>11212</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="1"/>
+        <v>111165</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>17048</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>7763</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>4929</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="1"/>
+        <v>405358</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>63392</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>33025</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>40949</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="1"/>
+        <v>5670977</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>914033</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>7053</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <f>B52/12</f>
+        <v>152303.66666666666</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ref="C64:E64" si="2">C52/12</f>
+        <v>26542.416666666668</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="2"/>
+        <v>11270.916666666666</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="2"/>
+        <v>12342.916666666666</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ref="B65:E71" si="3">B53/12</f>
+        <v>19698.75</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="3"/>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="3"/>
+        <v>6927.166666666667</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="3"/>
+        <v>7.25</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="3"/>
+        <v>116.91666666666667</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="3"/>
+        <v>9.5833333333333339</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="3"/>
+        <v>934.33333333333337</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="3"/>
+        <v>9263.75</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="3"/>
+        <v>1420.6666666666667</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="3"/>
+        <v>646.91666666666663</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="3"/>
+        <v>410.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="3"/>
+        <v>33779.833333333336</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="3"/>
+        <v>5282.666666666667</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="3"/>
+        <v>2752.0833333333335</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="3"/>
+        <v>3412.4166666666665</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="3"/>
+        <v>472581.41666666669</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="3"/>
+        <v>76169.416666666672</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="3"/>
+        <v>587.75</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>